--- a/data/transect_info.xlsx
+++ b/data/transect_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03125327\github\blopti_dev\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6BFA74-6565-4766-ACE4-F75CB260A3B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087D4391-8D76-4E46-A263-FBD979D6EF58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="3825" windowWidth="17505" windowHeight="9330" xr2:uid="{B9BA70EB-BC33-4070-B6A6-DD3C8A1F4AB1}"/>
   </bookViews>
@@ -496,7 +496,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/transect_info.xlsx
+++ b/data/transect_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03125327\github\blopti_dev\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087D4391-8D76-4E46-A263-FBD979D6EF58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88917CEC-7AD3-44ED-BF39-DF5DB206CD57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="3825" windowWidth="17505" windowHeight="9330" xr2:uid="{B9BA70EB-BC33-4070-B6A6-DD3C8A1F4AB1}"/>
+    <workbookView xWindow="9750" yWindow="5400" windowWidth="28800" windowHeight="15435" xr2:uid="{B9BA70EB-BC33-4070-B6A6-DD3C8A1F4AB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,10 +544,10 @@
         <v>-1</v>
       </c>
       <c r="D2">
-        <v>4.68</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>4.8</v>
+        <v>0.11</v>
       </c>
       <c r="F2">
         <v>120</v>
@@ -567,10 +567,10 @@
         <v>-1</v>
       </c>
       <c r="D3">
-        <v>6.03</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>6.24</v>
+        <v>-0.27</v>
       </c>
       <c r="F3">
         <v>190</v>
@@ -590,10 +590,10 @@
         <v>-1</v>
       </c>
       <c r="D4">
-        <v>9.06</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>8.9600000000000009</v>
+        <v>-0.22</v>
       </c>
       <c r="F4">
         <v>127</v>
@@ -613,10 +613,10 @@
         <v>-1</v>
       </c>
       <c r="D5">
-        <v>9.02</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>9.1</v>
+        <v>-0.37</v>
       </c>
       <c r="F5">
         <v>485</v>
@@ -636,10 +636,10 @@
         <v>-1</v>
       </c>
       <c r="D6">
-        <v>9.94</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>9.0299999999999994</v>
+        <v>-0.24</v>
       </c>
       <c r="F6">
         <v>210</v>

--- a/data/transect_info.xlsx
+++ b/data/transect_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03125327\github\blopti_dev\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88917CEC-7AD3-44ED-BF39-DF5DB206CD57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277E5D4A-F4DA-4431-9F8D-DFACF8C7A395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="5400" windowWidth="28800" windowHeight="15435" xr2:uid="{B9BA70EB-BC33-4070-B6A6-DD3C8A1F4AB1}"/>
+    <workbookView xWindow="25620" yWindow="9465" windowWidth="12780" windowHeight="11535" xr2:uid="{B9BA70EB-BC33-4070-B6A6-DD3C8A1F4AB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>transect_length</t>
   </si>
@@ -129,6 +129,123 @@
   </si>
   <si>
     <t>transect_name</t>
+  </si>
+  <si>
+    <t>DAYUN 03</t>
+  </si>
+  <si>
+    <t>DAYUN 06</t>
+  </si>
+  <si>
+    <t>DAYUN 07</t>
+  </si>
+  <si>
+    <t>DAYUN 10</t>
+  </si>
+  <si>
+    <t>DAYUN 14</t>
+  </si>
+  <si>
+    <t>DAYUN 15</t>
+  </si>
+  <si>
+    <t>DAYUN 16</t>
+  </si>
+  <si>
+    <t>DAYUN 17</t>
+  </si>
+  <si>
+    <t>DAYUN 18</t>
+  </si>
+  <si>
+    <t>DAYUN 21</t>
+  </si>
+  <si>
+    <t>DAYUN 22</t>
+  </si>
+  <si>
+    <t>DAYUN 23</t>
+  </si>
+  <si>
+    <t>DAYUN 24</t>
+  </si>
+  <si>
+    <t>DAYUN 25</t>
+  </si>
+  <si>
+    <t>DAYUN 33</t>
+  </si>
+  <si>
+    <t>DAYUN 34</t>
+  </si>
+  <si>
+    <t>DAYUN 35</t>
+  </si>
+  <si>
+    <t>DAYUN 36</t>
+  </si>
+  <si>
+    <t>DAYUN 37</t>
+  </si>
+  <si>
+    <t>DAYUN 38</t>
+  </si>
+  <si>
+    <t>DOSAN 1</t>
+  </si>
+  <si>
+    <t>DOSAN 10</t>
+  </si>
+  <si>
+    <t>DOSAN 11</t>
+  </si>
+  <si>
+    <t>DOSAN 2</t>
+  </si>
+  <si>
+    <t>DOSAN 3</t>
+  </si>
+  <si>
+    <t>DOSAN 4</t>
+  </si>
+  <si>
+    <t>DOSAN 5</t>
+  </si>
+  <si>
+    <t>DOSAN 6</t>
+  </si>
+  <si>
+    <t>DOSAN 7</t>
+  </si>
+  <si>
+    <t>DOSAN 8</t>
+  </si>
+  <si>
+    <t>DOSAN 9</t>
+  </si>
+  <si>
+    <t>P003</t>
+  </si>
+  <si>
+    <t>P006</t>
+  </si>
+  <si>
+    <t>P007</t>
+  </si>
+  <si>
+    <t>P009</t>
+  </si>
+  <si>
+    <t>P021</t>
+  </si>
+  <si>
+    <t>TNS1</t>
+  </si>
+  <si>
+    <t>TNT1</t>
+  </si>
+  <si>
+    <t>TNU1</t>
   </si>
 </sst>
 </file>
@@ -493,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFA8831-5967-4928-9040-44938CEAE61A}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,121 +652,317 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>-1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0.11</v>
-      </c>
-      <c r="F2">
-        <v>120</v>
-      </c>
-      <c r="G2">
-        <v>-2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>-1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>-0.27</v>
-      </c>
-      <c r="F3">
-        <v>190</v>
-      </c>
-      <c r="G3">
-        <v>-8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>-1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>-0.22</v>
-      </c>
-      <c r="F4">
-        <v>127</v>
-      </c>
-      <c r="G4">
-        <v>-8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>-1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>-0.37</v>
-      </c>
-      <c r="F5">
-        <v>485</v>
-      </c>
-      <c r="G5">
-        <v>-8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>-1</v>
+      </c>
+      <c r="D33">
+        <v>0.11</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>120</v>
+      </c>
+      <c r="G33">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>-1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0.27</v>
+      </c>
+      <c r="F38">
+        <v>190</v>
+      </c>
+      <c r="G38">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>-1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0.22</v>
+      </c>
+      <c r="F39">
+        <v>127</v>
+      </c>
+      <c r="G39">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>-1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0.37</v>
+      </c>
+      <c r="F40">
+        <v>485</v>
+      </c>
+      <c r="G40">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
         <v>-1</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>-0.24</v>
-      </c>
-      <c r="F6">
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0.24</v>
+      </c>
+      <c r="F41">
         <v>210</v>
       </c>
-      <c r="G6">
+      <c r="G41">
         <v>-8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/transect_info.xlsx
+++ b/data/transect_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03125327\github\blopti_dev\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277E5D4A-F4DA-4431-9F8D-DFACF8C7A395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34C7479-D87E-4348-A047-58F3F2EACBB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25620" yWindow="9465" windowWidth="12780" windowHeight="11535" xr2:uid="{B9BA70EB-BC33-4070-B6A6-DD3C8A1F4AB1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B9BA70EB-BC33-4070-B6A6-DD3C8A1F4AB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,31 @@
     <author>Urzainqui Aramburu Iñaki (LUKE)</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9CA280E6-9345-46CA-8337-4AD4AAE72521}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Urzainqui Aramburu Iñaki (LUKE):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Values adapted from Elevation Correction Plots .xlsx
+ </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{6187D7C6-2EF1-41B2-99BF-B37F3E9B66AB}">
       <text>
         <r>
@@ -58,7 +83,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Sensor0 = sensor closest to canal
+Sensor_canal = sensor closest to canal
 Position: relative pixel location within transect as in a Python array. E.g., 0 means 1st pixel;
 -1 means last pixel.</t>
         </r>
@@ -88,12 +113,61 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{6F7202C7-193E-46CF-A630-30DEE5EA0BDD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Urzainqui Aramburu Iñaki (LUKE):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Names sensor_a, sensor_b and sensor_c correspond to DAYUN and DOSAN transect sensors</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{CD955077-85F9-4383-B473-C3FE21C69E38}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Urzainqui Aramburu Iñaki (LUKE):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+A 5th sensor only appears in TNS transects
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>transect_length</t>
   </si>
@@ -116,12 +190,6 @@
     <t>P018</t>
   </si>
   <si>
-    <t>surface_elev_sensor0</t>
-  </si>
-  <si>
-    <t>sensor0_location</t>
-  </si>
-  <si>
     <t>sensor1_location</t>
   </si>
   <si>
@@ -131,99 +199,9 @@
     <t>transect_name</t>
   </si>
   <si>
-    <t>DAYUN 03</t>
-  </si>
-  <si>
-    <t>DAYUN 06</t>
-  </si>
-  <si>
-    <t>DAYUN 07</t>
-  </si>
-  <si>
-    <t>DAYUN 10</t>
-  </si>
-  <si>
-    <t>DAYUN 14</t>
-  </si>
-  <si>
-    <t>DAYUN 15</t>
-  </si>
-  <si>
-    <t>DAYUN 16</t>
-  </si>
-  <si>
-    <t>DAYUN 17</t>
-  </si>
-  <si>
-    <t>DAYUN 18</t>
-  </si>
-  <si>
-    <t>DAYUN 21</t>
-  </si>
-  <si>
-    <t>DAYUN 22</t>
-  </si>
-  <si>
-    <t>DAYUN 23</t>
-  </si>
-  <si>
-    <t>DAYUN 24</t>
-  </si>
-  <si>
-    <t>DAYUN 25</t>
-  </si>
-  <si>
-    <t>DAYUN 33</t>
-  </si>
-  <si>
-    <t>DAYUN 34</t>
-  </si>
-  <si>
-    <t>DAYUN 35</t>
-  </si>
-  <si>
-    <t>DAYUN 36</t>
-  </si>
-  <si>
-    <t>DAYUN 37</t>
-  </si>
-  <si>
     <t>DAYUN 38</t>
   </si>
   <si>
-    <t>DOSAN 1</t>
-  </si>
-  <si>
-    <t>DOSAN 10</t>
-  </si>
-  <si>
-    <t>DOSAN 11</t>
-  </si>
-  <si>
-    <t>DOSAN 2</t>
-  </si>
-  <si>
-    <t>DOSAN 3</t>
-  </si>
-  <si>
-    <t>DOSAN 4</t>
-  </si>
-  <si>
-    <t>DOSAN 5</t>
-  </si>
-  <si>
-    <t>DOSAN 6</t>
-  </si>
-  <si>
-    <t>DOSAN 7</t>
-  </si>
-  <si>
-    <t>DOSAN 8</t>
-  </si>
-  <si>
-    <t>DOSAN 9</t>
-  </si>
-  <si>
     <t>P003</t>
   </si>
   <si>
@@ -246,6 +224,114 @@
   </si>
   <si>
     <t>TNU1</t>
+  </si>
+  <si>
+    <t>sensor_canal_location</t>
+  </si>
+  <si>
+    <t>surface_elev_sensor_canal</t>
+  </si>
+  <si>
+    <t>surface_elev_sensor_a</t>
+  </si>
+  <si>
+    <t>surface_elev_sensor_b</t>
+  </si>
+  <si>
+    <t>surface_elev_sensor_c</t>
+  </si>
+  <si>
+    <t>surface_elev_sensor_d</t>
+  </si>
+  <si>
+    <t>DAYUN03</t>
+  </si>
+  <si>
+    <t>DAYUN06</t>
+  </si>
+  <si>
+    <t>DAYUN07</t>
+  </si>
+  <si>
+    <t>DAYUN10</t>
+  </si>
+  <si>
+    <t>DAYUN14</t>
+  </si>
+  <si>
+    <t>DAYUN15</t>
+  </si>
+  <si>
+    <t>DAYUN16</t>
+  </si>
+  <si>
+    <t>DAYUN17</t>
+  </si>
+  <si>
+    <t>DAYUN18</t>
+  </si>
+  <si>
+    <t>DAYUN21</t>
+  </si>
+  <si>
+    <t>DAYUN22</t>
+  </si>
+  <si>
+    <t>DAYUN23</t>
+  </si>
+  <si>
+    <t>DAYUN24</t>
+  </si>
+  <si>
+    <t>DAYUN25</t>
+  </si>
+  <si>
+    <t>DAYUN33</t>
+  </si>
+  <si>
+    <t>DAYUN34</t>
+  </si>
+  <si>
+    <t>DAYUN35</t>
+  </si>
+  <si>
+    <t>DAYUN36</t>
+  </si>
+  <si>
+    <t>DAYUN37</t>
+  </si>
+  <si>
+    <t>DOSAN10</t>
+  </si>
+  <si>
+    <t>DOSAN01</t>
+  </si>
+  <si>
+    <t>DOSAN11</t>
+  </si>
+  <si>
+    <t>DOSAN02</t>
+  </si>
+  <si>
+    <t>DOSAN03</t>
+  </si>
+  <si>
+    <t>DOSAN04</t>
+  </si>
+  <si>
+    <t>DOSAN05</t>
+  </si>
+  <si>
+    <t>DOSAN06</t>
+  </si>
+  <si>
+    <t>DOSAN07</t>
+  </si>
+  <si>
+    <t>DOSAN08</t>
+  </si>
+  <si>
+    <t>DOSAN09</t>
   </si>
 </sst>
 </file>
@@ -610,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFA8831-5967-4928-9040-44938CEAE61A}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,191 +707,481 @@
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
     <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>0.03</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.03</v>
+      </c>
+      <c r="H3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.19</v>
+      </c>
+      <c r="G4">
+        <v>0.36</v>
+      </c>
+      <c r="H4">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.23</v>
+      </c>
+      <c r="G5">
+        <v>0.17</v>
+      </c>
+      <c r="H5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.42</v>
+      </c>
+      <c r="G6">
+        <v>0.98</v>
+      </c>
+      <c r="H6">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>0.03</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.02</v>
+      </c>
+      <c r="H7">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.33</v>
+      </c>
+      <c r="H8">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.19</v>
+      </c>
+      <c r="G11">
+        <v>0.01</v>
+      </c>
+      <c r="H11">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.06</v>
+      </c>
+      <c r="G16">
+        <v>0.17</v>
+      </c>
+      <c r="H16">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.43</v>
+      </c>
+      <c r="G17">
+        <v>0.33</v>
+      </c>
+      <c r="H17">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18">
+        <v>0.04</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0.13</v>
+      </c>
+      <c r="H18">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="D22">
+        <v>0.6</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0.5</v>
+      </c>
+      <c r="H22">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D23">
+        <v>0.13</v>
+      </c>
+      <c r="F23">
+        <v>0.03</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D24">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0.4</v>
+      </c>
+      <c r="H24">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D25">
+        <v>0.35</v>
+      </c>
+      <c r="F25">
+        <v>0.22</v>
+      </c>
+      <c r="G25">
+        <v>0.39</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D26">
+        <v>0.09</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0.11</v>
+      </c>
+      <c r="H26">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0.18</v>
+      </c>
+      <c r="H27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D28">
+        <v>0.32</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0.31</v>
+      </c>
+      <c r="H28">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D29">
+        <v>0.7</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0.2</v>
+      </c>
+      <c r="H29">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D30">
+        <v>0.6</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0.09</v>
+      </c>
+      <c r="H30">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D31">
+        <v>0.6</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0.09</v>
+      </c>
+      <c r="H31">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="D32">
+        <v>0.77</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0.22</v>
+      </c>
+      <c r="H32">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -821,34 +1197,82 @@
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33">
+      <c r="J33">
         <v>120</v>
       </c>
-      <c r="G33">
+      <c r="K33">
         <v>-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>-1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>-1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>-1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>-1</v>
+      </c>
+      <c r="D37">
+        <v>-0.02</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -864,14 +1288,14 @@
       <c r="E38">
         <v>0.27</v>
       </c>
-      <c r="F38">
+      <c r="J38">
         <v>190</v>
       </c>
-      <c r="G38">
+      <c r="K38">
         <v>-8</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -887,14 +1311,14 @@
       <c r="E39">
         <v>0.22</v>
       </c>
-      <c r="F39">
+      <c r="J39">
         <v>127</v>
       </c>
-      <c r="G39">
+      <c r="K39">
         <v>-8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -910,14 +1334,14 @@
       <c r="E40">
         <v>0.37</v>
       </c>
-      <c r="F40">
+      <c r="J40">
         <v>485</v>
       </c>
-      <c r="G40">
+      <c r="K40">
         <v>-8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -933,31 +1357,76 @@
       <c r="E41">
         <v>0.24</v>
       </c>
-      <c r="F41">
+      <c r="J41">
         <v>210</v>
       </c>
-      <c r="G41">
+      <c r="K41">
         <v>-8</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0.24</v>
+      </c>
+      <c r="G43">
+        <v>0.62</v>
+      </c>
+      <c r="H43">
+        <v>1.05</v>
+      </c>
+      <c r="I43">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0.64</v>
+      </c>
+      <c r="G44">
+        <v>0.99</v>
+      </c>
+      <c r="H44">
+        <v>1.17</v>
+      </c>
+      <c r="I44">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G45">
+        <v>0.76</v>
+      </c>
+      <c r="H45">
+        <v>1.03</v>
+      </c>
+      <c r="I45">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>
